--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I1597/Documents/repositories/excel_validator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D39A82C-7E99-CC4F-BE9F-CB5B1C9002B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A689C-72A9-4F49-9071-D52F3BC7D102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -584,7 +584,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="5">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="L3" s="5" t="b">
         <v>0</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,19 +4,20 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Example" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Students" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj5Vg5TQSC9tgukmQ7JlHZq9JGLwA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhD6SaTNa3FSw3bCTki5U5s2ERxAg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -121,6 +122,48 @@
   </si>
   <si>
     <t>max34</t>
+  </si>
+  <si>
+    <t>Roll No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>MAR2022001</t>
+  </si>
+  <si>
+    <t>Deepak Sharma</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>MUM123</t>
+  </si>
+  <si>
+    <t>MAR2022002</t>
+  </si>
+  <si>
+    <t>Deep@k $harma</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>DEL123</t>
   </si>
 </sst>
 </file>
@@ -131,7 +174,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -151,6 +194,17 @@
       <u/>
       <sz val="11.0"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -180,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -206,6 +260,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -215,6 +278,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1583,4 +1650,71 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>